--- a/teaching/traditional_assets/database/data/lithuania/lithuania_financial_svcs_non_bank_insurance.xlsx
+++ b/teaching/traditional_assets/database/data/lithuania/lithuania_financial_svcs_non_bank_insurance.xlsx
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="G2">
-        <v>-0.2848101265822785</v>
+        <v>-0.3093617021276596</v>
       </c>
       <c r="H2">
-        <v>-0.2848101265822785</v>
+        <v>-0.3093617021276596</v>
       </c>
       <c r="I2">
-        <v>-0.5234177215189872</v>
+        <v>-0.2914893617021277</v>
       </c>
       <c r="J2">
-        <v>-0.5234177215189872</v>
+        <v>-0.2914893617021277</v>
       </c>
       <c r="K2">
-        <v>-0.739</v>
+        <v>-0.738</v>
       </c>
       <c r="L2">
-        <v>-0.4677215189873418</v>
+        <v>-0.3140425531914893</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -630,46 +630,67 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>3.52</v>
+        <v>5.78</v>
       </c>
       <c r="V2">
-        <v>0.2707692307692308</v>
+        <v>0.4587301587301588</v>
+      </c>
+      <c r="W2">
+        <v>-0.4122905027932961</v>
       </c>
       <c r="X2">
-        <v>0.0300456564633588</v>
+        <v>0.02039890644709087</v>
+      </c>
+      <c r="Y2">
+        <v>-0.432689409240387</v>
+      </c>
+      <c r="Z2">
+        <v>6.714285714285713</v>
+      </c>
+      <c r="AA2">
+        <v>-1.957142857142857</v>
       </c>
       <c r="AB2">
-        <v>0.03153276677061798</v>
+        <v>0.02113518044582894</v>
+      </c>
+      <c r="AC2">
+        <v>-1.978278037588686</v>
       </c>
       <c r="AD2">
-        <v>2.08</v>
+        <v>2.21</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>2.08</v>
+        <v>2.21</v>
       </c>
       <c r="AG2">
-        <v>-1.44</v>
+        <v>-3.57</v>
       </c>
       <c r="AH2">
-        <v>0.1379310344827586</v>
+        <v>0.149223497636732</v>
       </c>
       <c r="AI2">
-        <v>0.537467700258398</v>
+        <v>0.6820987654320987</v>
       </c>
       <c r="AJ2">
-        <v>-0.1245674740484429</v>
+        <v>-0.3953488372093024</v>
       </c>
       <c r="AK2">
-        <v>-4.114285714285713</v>
+        <v>1.405511811023622</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>-0.009000000000000001</v>
+      </c>
+      <c r="AO2">
+        <v>-137</v>
+      </c>
+      <c r="AQ2">
+        <v>76.11111111111111</v>
       </c>
     </row>
     <row r="3">
@@ -689,22 +710,22 @@
         </is>
       </c>
       <c r="G3">
-        <v>-0.2848101265822785</v>
+        <v>-0.3093617021276596</v>
       </c>
       <c r="H3">
-        <v>-0.2848101265822785</v>
+        <v>-0.3093617021276596</v>
       </c>
       <c r="I3">
-        <v>-0.5234177215189872</v>
+        <v>-0.2914893617021277</v>
       </c>
       <c r="J3">
-        <v>-0.5234177215189872</v>
+        <v>-0.2914893617021277</v>
       </c>
       <c r="K3">
-        <v>-0.739</v>
+        <v>-0.738</v>
       </c>
       <c r="L3">
-        <v>-0.4677215189873418</v>
+        <v>-0.3140425531914893</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -728,46 +749,67 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>3.52</v>
+        <v>5.78</v>
       </c>
       <c r="V3">
-        <v>0.2707692307692308</v>
+        <v>0.4587301587301588</v>
+      </c>
+      <c r="W3">
+        <v>-0.4122905027932961</v>
       </c>
       <c r="X3">
-        <v>0.0300456564633588</v>
+        <v>0.02039890644709087</v>
+      </c>
+      <c r="Y3">
+        <v>-0.432689409240387</v>
+      </c>
+      <c r="Z3">
+        <v>6.714285714285713</v>
+      </c>
+      <c r="AA3">
+        <v>-1.957142857142857</v>
       </c>
       <c r="AB3">
-        <v>0.03153276677061798</v>
+        <v>0.02113518044582894</v>
+      </c>
+      <c r="AC3">
+        <v>-1.978278037588686</v>
       </c>
       <c r="AD3">
-        <v>2.08</v>
+        <v>2.21</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>2.08</v>
+        <v>2.21</v>
       </c>
       <c r="AG3">
-        <v>-1.44</v>
+        <v>-3.57</v>
       </c>
       <c r="AH3">
-        <v>0.1379310344827586</v>
+        <v>0.149223497636732</v>
       </c>
       <c r="AI3">
-        <v>0.537467700258398</v>
+        <v>0.6820987654320987</v>
       </c>
       <c r="AJ3">
-        <v>-0.1245674740484429</v>
+        <v>-0.3953488372093024</v>
       </c>
       <c r="AK3">
-        <v>-4.114285714285713</v>
+        <v>1.405511811023622</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>-0.009000000000000001</v>
+      </c>
+      <c r="AO3">
+        <v>-137</v>
+      </c>
+      <c r="AQ3">
+        <v>76.11111111111111</v>
       </c>
     </row>
   </sheetData>
